--- a/NEL_deaths.xlsx
+++ b/NEL_deaths.xlsx
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58:O60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>43895</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
@@ -795,19 +795,19 @@
       </c>
       <c r="L6" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
@@ -855,7 +855,7 @@
       </c>
       <c r="M7" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="4"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="O7" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
@@ -911,7 +911,7 @@
       </c>
       <c r="M8" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="4"/>
@@ -919,7 +919,7 @@
       </c>
       <c r="O8" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="M9" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="4"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="M10" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="4"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="O10" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="M11" s="7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="4"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="O11" s="7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="M12" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="4"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="O12" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="M13" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="4"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="O13" s="7">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="M14" s="7">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="4"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="O14" s="7">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="M15" s="7">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="4"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O15" s="7">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="1"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="M16" s="7">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="4"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="1"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="M17" s="7">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="4"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="O17" s="7">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="M18" s="7">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="4"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="O18" s="7">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ref="H19:H54" si="7">C19+H18</f>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="M19" s="7">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="4"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="O19" s="7">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="7"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="M20" s="7">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="4"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O20" s="7">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="7"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="M21" s="7">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="4"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="O21" s="7">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="7"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="M22" s="7">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="4"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="O22" s="7">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="7"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="M23" s="7">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="4"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="O23" s="7">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="7"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="M24" s="7">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="4"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="O24" s="7">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>43914</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="3"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="N25" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="5"/>
@@ -2103,7 +2103,7 @@
         <v>43919</v>
       </c>
       <c r="B30" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3">
         <v>19</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="7"/>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="5"/>
         <v>181</v>
-      </c>
-      <c r="N30" s="7">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="O30" s="7">
-        <f t="shared" si="5"/>
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="7"/>
@@ -2199,15 +2199,15 @@
       </c>
       <c r="M31" s="7">
         <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="5"/>
         <v>213</v>
-      </c>
-      <c r="N31" s="7">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="O31" s="7">
-        <f t="shared" si="5"/>
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="7"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="M32" s="7">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N32" s="7">
         <f t="shared" si="4"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="O32" s="7">
         <f t="shared" si="5"/>
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="7"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="M33" s="7">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="4"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O33" s="7">
         <f t="shared" si="5"/>
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="7"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="M34" s="7">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="4"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="O34" s="7">
         <f t="shared" si="5"/>
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="G35" s="7">
         <f t="shared" si="6"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="7"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="M35" s="7">
         <f t="shared" ref="M35:M54" si="11">SUM(G35:K35)</f>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="4"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="O35" s="7">
         <f t="shared" si="5"/>
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="7"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="M36" s="7">
         <f t="shared" si="11"/>
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="4"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="O36" s="7">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>43926</v>
       </c>
       <c r="B37" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="3">
         <v>15</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="7"/>
@@ -2531,19 +2531,19 @@
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" si="11"/>
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" si="5"/>
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>43927</v>
       </c>
       <c r="B38" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C38" s="3">
         <v>17</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="7"/>
@@ -2587,19 +2587,19 @@
       </c>
       <c r="L38" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="11"/>
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" si="5"/>
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>43928</v>
       </c>
       <c r="B39" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3">
         <v>12</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="7"/>
@@ -2643,19 +2643,19 @@
       </c>
       <c r="L39" s="7">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="11"/>
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="N39" s="7">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O39" s="7">
         <f t="shared" si="5"/>
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="7"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="M40" s="7">
         <f t="shared" si="11"/>
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="N40" s="7">
         <f t="shared" si="4"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="O40" s="7">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>43930</v>
       </c>
       <c r="B41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3">
         <v>16</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="7"/>
@@ -2755,19 +2755,19 @@
       </c>
       <c r="L41" s="7">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="11"/>
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="N41" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O41" s="7">
         <f t="shared" si="5"/>
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="7"/>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="M42" s="7">
         <f t="shared" si="11"/>
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="N42" s="7">
         <f t="shared" si="4"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O42" s="7">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="7"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="M43" s="7">
         <f t="shared" si="11"/>
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="N43" s="7">
         <f t="shared" si="4"/>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="O43" s="7">
         <f t="shared" si="5"/>
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>43933</v>
       </c>
       <c r="B44" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" s="3">
         <v>9</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="7"/>
@@ -2923,19 +2923,19 @@
       </c>
       <c r="L44" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="11"/>
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="N44" s="7">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O44" s="7">
         <f t="shared" si="5"/>
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>43934</v>
       </c>
       <c r="B45" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" s="3">
         <v>10</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="7"/>
@@ -2979,19 +2979,19 @@
       </c>
       <c r="L45" s="7">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="11"/>
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="N45" s="7">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O45" s="7">
         <f t="shared" si="5"/>
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="7"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="M46" s="7">
         <f t="shared" si="11"/>
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="N46" s="7">
         <f t="shared" si="4"/>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="O46" s="7">
         <f t="shared" si="5"/>
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="7"/>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="M47" s="7">
         <f t="shared" si="11"/>
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="N47" s="7">
         <f t="shared" si="4"/>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="O47" s="7">
         <f t="shared" si="5"/>
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="7"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="M48" s="7">
         <f t="shared" si="11"/>
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="N48" s="7">
         <f t="shared" si="4"/>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="O48" s="7">
         <f t="shared" si="5"/>
-        <v>692</v>
+        <v>702</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="7"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="M49" s="7">
         <f t="shared" si="11"/>
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="N49" s="7">
         <f t="shared" si="4"/>
@@ -3215,31 +3215,31 @@
       </c>
       <c r="O49" s="7">
         <f t="shared" si="5"/>
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43939</v>
       </c>
-      <c r="B50" s="4">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="3">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
         <v>7</v>
       </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
         <v>5</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="7"/>
@@ -3259,43 +3259,43 @@
       </c>
       <c r="L50" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M50" s="7">
         <f t="shared" si="11"/>
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="N50" s="7">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O50" s="7">
         <f t="shared" si="5"/>
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43940</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>9</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>12</v>
       </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3">
         <v>1</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="7"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="M51" s="7">
         <f t="shared" si="11"/>
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="4"/>
@@ -3327,31 +3327,31 @@
       </c>
       <c r="O51" s="7">
         <f t="shared" si="5"/>
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43941</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>7</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>9</v>
       </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>4</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>1</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="7"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="M52" s="7">
         <f t="shared" si="11"/>
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="4"/>
@@ -3383,31 +3383,31 @@
       </c>
       <c r="O52" s="7">
         <f t="shared" si="5"/>
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>43942</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>4</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>9</v>
       </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="6"/>
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="7"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="M53" s="7">
         <f t="shared" si="11"/>
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="4"/>
@@ -3439,31 +3439,31 @@
       </c>
       <c r="O53" s="7">
         <f t="shared" si="5"/>
-        <v>786</v>
+        <v>797</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43943</v>
       </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3">
         <v>10</v>
       </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2</v>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="6"/>
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="7"/>
@@ -3479,47 +3479,47 @@
       </c>
       <c r="K54" s="7">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" s="7">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="7">
         <f t="shared" si="11"/>
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="N54" s="7">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O54" s="7">
         <f t="shared" si="5"/>
-        <v>797</v>
+        <v>812</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>43944</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" ref="G55" si="12">B55+G54</f>
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" ref="H55" si="13">C55+H54</f>
@@ -3535,23 +3535,359 @@
       </c>
       <c r="K55" s="7">
         <f t="shared" ref="K55" si="16">F55+K54</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" ref="L55" si="17">SUM(B55:F55)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" ref="M55" si="18">SUM(G55:K55)</f>
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="N55" s="7">
         <f t="shared" ref="N55" si="19">SUM(B55,C55,E55)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O55" s="7">
         <f t="shared" ref="O55" si="20">SUM(G55,H55,J55)</f>
-        <v>808</v>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>43945</v>
+      </c>
+      <c r="B56" s="3">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" ref="G56:G61" si="21">B56+G55</f>
+        <v>336</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" ref="H56:H61" si="22">C56+H55</f>
+        <v>376</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56:I61" si="23">D56+I55</f>
+        <v>17</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" ref="J56:J61" si="24">E56+J55</f>
+        <v>123</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" ref="K56:K61" si="25">F56+K55</f>
+        <v>15</v>
+      </c>
+      <c r="L56" s="7">
+        <f t="shared" ref="L56:L61" si="26">SUM(B56:F56)</f>
+        <v>12</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" ref="M56:M61" si="27">SUM(G56:K56)</f>
+        <v>867</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" ref="N56:N61" si="28">SUM(B56,C56,E56)</f>
+        <v>11</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" ref="O56:O61" si="29">SUM(G56,H56,J56)</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>43946</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="21"/>
+        <v>338</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="22"/>
+        <v>381</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="24"/>
+        <v>123</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="L57" s="7">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="M57" s="7">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="N57" s="7">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="O57" s="7">
+        <f t="shared" si="29"/>
+        <v>842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>43947</v>
+      </c>
+      <c r="B58" s="4">
+        <v>2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="21"/>
+        <v>340</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" si="22"/>
+        <v>383</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="24"/>
+        <v>124</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="L58" s="7">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="M58" s="7">
+        <f t="shared" si="27"/>
+        <v>881</v>
+      </c>
+      <c r="N58" s="7">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O58" s="7">
+        <f t="shared" si="29"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>43948</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="21"/>
+        <v>341</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="22"/>
+        <v>386</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="24"/>
+        <v>124</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="L59" s="7">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="M59" s="7">
+        <f t="shared" si="27"/>
+        <v>886</v>
+      </c>
+      <c r="N59" s="7">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="O59" s="7">
+        <f t="shared" si="29"/>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>43949</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="21"/>
+        <v>341</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="22"/>
+        <v>387</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="24"/>
+        <v>126</v>
+      </c>
+      <c r="K60" s="7">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="L60" s="7">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="M60" s="7">
+        <f t="shared" si="27"/>
+        <v>891</v>
+      </c>
+      <c r="N60" s="7">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="O60" s="7">
+        <f t="shared" si="29"/>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>43950</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="21"/>
+        <v>341</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="22"/>
+        <v>388</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="24"/>
+        <v>127</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="L61" s="7">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="M61" s="7">
+        <f t="shared" si="27"/>
+        <v>893</v>
+      </c>
+      <c r="N61" s="7">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="O61" s="7">
+        <f t="shared" si="29"/>
+        <v>856</v>
       </c>
     </row>
   </sheetData>

--- a/NEL_deaths.xlsx
+++ b/NEL_deaths.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.elc.nhs.uk\NetworkDrive\TowerHamletsCCG\NHSTHCCG\Financial strategy\Analysis\Covid-19\Beds and demand modelling\Peak demand estimate\SEIR model python code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheethamn\Desktop\SEIR model python code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,6 +207,1353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CumBHRUTBartsHom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$80</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1074</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2222-4EAE-A981-BC1A4C1BC41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="549645912"/>
+        <c:axId val="549639352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="549645912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549639352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="549639352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549645912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>340177</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1171,7 +2518,7 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
@@ -1187,19 +2534,19 @@
       </c>
       <c r="L13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="7">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1210,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1227,7 +2574,7 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
@@ -1243,19 +2590,19 @@
       </c>
       <c r="L14" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1283,7 +2630,7 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
@@ -1303,7 +2650,7 @@
       </c>
       <c r="M15" s="7">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="4"/>
@@ -1311,7 +2658,7 @@
       </c>
       <c r="O15" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1339,7 +2686,7 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
@@ -1359,7 +2706,7 @@
       </c>
       <c r="M16" s="7">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="4"/>
@@ -1367,7 +2714,7 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1395,7 +2742,7 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
@@ -1415,7 +2762,7 @@
       </c>
       <c r="M17" s="7">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="4"/>
@@ -1423,7 +2770,7 @@
       </c>
       <c r="O17" s="7">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1431,7 +2778,7 @@
         <v>43907</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1447,11 +2794,11 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
@@ -1467,19 +2814,19 @@
       </c>
       <c r="L18" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="7">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1490,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1503,11 +2850,11 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ref="H19:H54" si="7">C19+H18</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" ref="I19:I54" si="8">D19+I18</f>
@@ -1523,19 +2870,19 @@
       </c>
       <c r="L19" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1559,11 +2906,11 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="8"/>
@@ -1583,7 +2930,7 @@
       </c>
       <c r="M20" s="7">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="4"/>
@@ -1591,7 +2938,7 @@
       </c>
       <c r="O20" s="7">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1602,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1615,11 +2962,11 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="8"/>
@@ -1635,19 +2982,19 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1658,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1671,11 +3018,11 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="8"/>
@@ -1691,19 +3038,19 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22" s="7">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1727,11 +3074,11 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="8"/>
@@ -1751,7 +3098,7 @@
       </c>
       <c r="M23" s="7">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="4"/>
@@ -1759,7 +3106,7 @@
       </c>
       <c r="O23" s="7">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1770,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -1783,11 +3130,11 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="8"/>
@@ -1803,19 +3150,19 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24" s="7">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1826,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1839,11 +3186,11 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="8"/>
@@ -1859,19 +3206,19 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1895,11 +3242,11 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="8"/>
@@ -1919,7 +3266,7 @@
       </c>
       <c r="M26" s="7">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="4"/>
@@ -1927,7 +3274,7 @@
       </c>
       <c r="O26" s="7">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1951,11 +3298,11 @@
       </c>
       <c r="G27" s="7">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="8"/>
@@ -1975,7 +3322,7 @@
       </c>
       <c r="M27" s="7">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="4"/>
@@ -1983,7 +3330,7 @@
       </c>
       <c r="O27" s="7">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2007,11 +3354,11 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="7"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="8"/>
@@ -2031,7 +3378,7 @@
       </c>
       <c r="M28" s="7">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="4"/>
@@ -2039,7 +3386,7 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2050,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -2063,11 +3410,11 @@
       </c>
       <c r="G29" s="7">
         <f t="shared" si="6"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="8"/>
@@ -2083,19 +3430,19 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N29" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O29" s="7">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2106,7 +3453,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -2119,11 +3466,11 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="8"/>
@@ -2139,19 +3486,19 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O30" s="7">
         <f t="shared" si="5"/>
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2162,7 +3509,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -2175,11 +3522,11 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="6"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="7"/>
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="8"/>
@@ -2195,19 +3542,19 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O31" s="7">
         <f t="shared" si="5"/>
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2218,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -2231,11 +3578,11 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="7"/>
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="8"/>
@@ -2251,19 +3598,19 @@
       </c>
       <c r="L32" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N32" s="7">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O32" s="7">
         <f t="shared" si="5"/>
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2274,7 +3621,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -2287,11 +3634,11 @@
       </c>
       <c r="G33" s="7">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="7"/>
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="8"/>
@@ -2307,19 +3654,19 @@
       </c>
       <c r="L33" s="7">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O33" s="7">
         <f t="shared" si="5"/>
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2330,10 +3677,10 @@
         <v>14</v>
       </c>
       <c r="C34" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -2343,15 +3690,15 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="7"/>
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="9"/>
@@ -2363,19 +3710,19 @@
       </c>
       <c r="L34" s="7">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="5"/>
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2386,10 +3733,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
@@ -2399,15 +3746,15 @@
       </c>
       <c r="G35" s="7">
         <f t="shared" si="6"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="9"/>
@@ -2419,19 +3766,19 @@
       </c>
       <c r="L35" s="7">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" ref="M35:M54" si="11">SUM(G35:K35)</f>
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="5"/>
-        <v>315</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2439,13 +3786,13 @@
         <v>43925</v>
       </c>
       <c r="B36" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <v>8</v>
@@ -2455,15 +3802,15 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="6"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="7"/>
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="9"/>
@@ -2475,19 +3822,19 @@
       </c>
       <c r="L36" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="11"/>
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2495,13 +3842,13 @@
         <v>43926</v>
       </c>
       <c r="B37" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -2511,15 +3858,15 @@
       </c>
       <c r="G37" s="7">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="7"/>
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="9"/>
@@ -2531,19 +3878,19 @@
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" si="11"/>
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" si="5"/>
-        <v>376</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2554,7 +3901,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -2567,15 +3914,15 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="6"/>
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="9"/>
@@ -2587,19 +3934,19 @@
       </c>
       <c r="L38" s="7">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="11"/>
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" si="5"/>
-        <v>412</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2610,7 +3957,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -2623,15 +3970,15 @@
       </c>
       <c r="G39" s="7">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="9"/>
@@ -2643,19 +3990,19 @@
       </c>
       <c r="L39" s="7">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="11"/>
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="N39" s="7">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O39" s="7">
         <f t="shared" si="5"/>
-        <v>448</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2663,10 +4010,10 @@
         <v>43929</v>
       </c>
       <c r="B40" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -2679,15 +4026,15 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="6"/>
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="9"/>
@@ -2699,19 +4046,19 @@
       </c>
       <c r="L40" s="7">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="11"/>
-        <v>502</v>
+        <v>587</v>
       </c>
       <c r="N40" s="7">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O40" s="7">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2722,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -2735,15 +4082,15 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="6"/>
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="7"/>
-        <v>241</v>
+        <v>330</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="9"/>
@@ -2755,19 +4102,19 @@
       </c>
       <c r="L41" s="7">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="11"/>
-        <v>543</v>
+        <v>632</v>
       </c>
       <c r="N41" s="7">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O41" s="7">
         <f t="shared" si="5"/>
-        <v>527</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2778,7 +4125,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -2791,15 +4138,15 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="6"/>
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>351</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="9"/>
@@ -2811,19 +4158,19 @@
       </c>
       <c r="L42" s="7">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="11"/>
-        <v>575</v>
+        <v>669</v>
       </c>
       <c r="N42" s="7">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O42" s="7">
         <f t="shared" si="5"/>
-        <v>558</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2834,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -2847,15 +4194,15 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="6"/>
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="7"/>
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="9"/>
@@ -2867,19 +4214,19 @@
       </c>
       <c r="L43" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="11"/>
-        <v>596</v>
+        <v>699</v>
       </c>
       <c r="N43" s="7">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O43" s="7">
         <f t="shared" si="5"/>
-        <v>579</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2887,13 +4234,13 @@
         <v>43933</v>
       </c>
       <c r="B44" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C44" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="3">
         <v>6</v>
@@ -2903,15 +4250,15 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="6"/>
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="9"/>
@@ -2923,19 +4270,19 @@
       </c>
       <c r="L44" s="7">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="11"/>
-        <v>632</v>
+        <v>741</v>
       </c>
       <c r="N44" s="7">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O44" s="7">
         <f t="shared" si="5"/>
-        <v>610</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2943,10 +4290,10 @@
         <v>43934</v>
       </c>
       <c r="B45" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2959,15 +4306,15 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="6"/>
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>399</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="9"/>
@@ -2979,19 +4326,19 @@
       </c>
       <c r="L45" s="7">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="11"/>
-        <v>660</v>
+        <v>776</v>
       </c>
       <c r="N45" s="7">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="O45" s="7">
         <f t="shared" si="5"/>
-        <v>637</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2999,10 +4346,10 @@
         <v>43935</v>
       </c>
       <c r="B46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -3015,15 +4362,15 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="6"/>
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="7"/>
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="9"/>
@@ -3035,19 +4382,19 @@
       </c>
       <c r="L46" s="7">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="11"/>
-        <v>682</v>
+        <v>805</v>
       </c>
       <c r="N46" s="7">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O46" s="7">
         <f t="shared" si="5"/>
-        <v>658</v>
+        <v>787</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3058,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3071,15 +4418,15 @@
       </c>
       <c r="G47" s="7">
         <f t="shared" si="6"/>
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="7"/>
-        <v>305</v>
+        <v>432</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="9"/>
@@ -3091,19 +4438,19 @@
       </c>
       <c r="L47" s="7">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="11"/>
-        <v>706</v>
+        <v>836</v>
       </c>
       <c r="N47" s="7">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O47" s="7">
         <f t="shared" si="5"/>
-        <v>682</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3111,10 +4458,10 @@
         <v>43937</v>
       </c>
       <c r="B48" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -3127,15 +4474,15 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="6"/>
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="7"/>
-        <v>314</v>
+        <v>444</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="9"/>
@@ -3147,19 +4494,19 @@
       </c>
       <c r="L48" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="11"/>
-        <v>726</v>
+        <v>860</v>
       </c>
       <c r="N48" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O48" s="7">
         <f t="shared" si="5"/>
-        <v>702</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3170,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -3183,15 +4530,15 @@
       </c>
       <c r="G49" s="7">
         <f t="shared" si="6"/>
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="7"/>
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="9"/>
@@ -3203,19 +4550,19 @@
       </c>
       <c r="L49" s="7">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M49" s="7">
         <f t="shared" si="11"/>
-        <v>742</v>
+        <v>883</v>
       </c>
       <c r="N49" s="7">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O49" s="7">
         <f t="shared" si="5"/>
-        <v>717</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3223,10 +4570,10 @@
         <v>43939</v>
       </c>
       <c r="B50" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -3239,15 +4586,15 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="6"/>
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="7"/>
-        <v>327</v>
+        <v>465</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="9"/>
@@ -3259,19 +4606,19 @@
       </c>
       <c r="L50" s="7">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M50" s="7">
         <f t="shared" si="11"/>
-        <v>764</v>
+        <v>907</v>
       </c>
       <c r="N50" s="7">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O50" s="7">
         <f t="shared" si="5"/>
-        <v>739</v>
+        <v>888</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3282,10 +4629,10 @@
         <v>9</v>
       </c>
       <c r="C51" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -3295,15 +4642,15 @@
       </c>
       <c r="G51" s="7">
         <f t="shared" si="6"/>
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="7"/>
-        <v>339</v>
+        <v>479</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="9"/>
@@ -3315,19 +4662,19 @@
       </c>
       <c r="L51" s="7">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M51" s="7">
         <f t="shared" si="11"/>
-        <v>789</v>
+        <v>935</v>
       </c>
       <c r="N51" s="7">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O51" s="7">
         <f t="shared" si="5"/>
-        <v>763</v>
+        <v>914</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3335,10 +4682,10 @@
         <v>43941</v>
       </c>
       <c r="B52" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -3347,19 +4694,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="6"/>
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="7"/>
-        <v>348</v>
+        <v>491</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="9"/>
@@ -3367,23 +4714,23 @@
       </c>
       <c r="K52" s="7">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M52" s="7">
         <f t="shared" si="11"/>
-        <v>810</v>
+        <v>962</v>
       </c>
       <c r="N52" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O52" s="7">
         <f t="shared" si="5"/>
-        <v>783</v>
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3394,52 +4741,52 @@
         <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="6"/>
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="7"/>
-        <v>357</v>
+        <v>503</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" si="9"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="11"/>
-        <v>824</v>
+        <v>980</v>
       </c>
       <c r="N53" s="7">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O53" s="7">
         <f t="shared" si="5"/>
-        <v>797</v>
+        <v>957</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3447,7 +4794,7 @@
         <v>43943</v>
       </c>
       <c r="B54" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3">
         <v>10</v>
@@ -3463,39 +4810,39 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="6"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>513</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="9"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L54" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M54" s="7">
         <f t="shared" si="11"/>
-        <v>842</v>
+        <v>1000</v>
       </c>
       <c r="N54" s="7">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" s="7">
         <f t="shared" si="5"/>
-        <v>812</v>
+        <v>974</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3506,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -3519,39 +4866,39 @@
       </c>
       <c r="G55" s="7">
         <f t="shared" ref="G55" si="12">B55+G54</f>
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" ref="H55" si="13">C55+H54</f>
-        <v>374</v>
+        <v>521</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" ref="I55" si="14">D55+I54</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" ref="J55" si="15">E55+J54</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" ref="K55" si="16">F55+K54</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" ref="L55" si="17">SUM(B55:F55)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" ref="M55" si="18">SUM(G55:K55)</f>
-        <v>855</v>
+        <v>1014</v>
       </c>
       <c r="N55" s="7">
         <f t="shared" ref="N55" si="19">SUM(B55,C55,E55)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O55" s="7">
         <f t="shared" ref="O55" si="20">SUM(G55,H55,J55)</f>
-        <v>824</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3559,10 +4906,10 @@
         <v>43945</v>
       </c>
       <c r="B56" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -3575,79 +4922,79 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" ref="G56:G61" si="21">B56+G55</f>
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" ref="H56:H61" si="22">C56+H55</f>
-        <v>376</v>
+        <v>524</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" ref="I56:I61" si="23">D56+I55</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J56" s="7">
         <f t="shared" ref="J56:J61" si="24">E56+J55</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" ref="K56:K61" si="25">F56+K55</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L56" s="7">
         <f t="shared" ref="L56:L61" si="26">SUM(B56:F56)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" ref="M56:M61" si="27">SUM(G56:K56)</f>
-        <v>867</v>
+        <v>1028</v>
       </c>
       <c r="N56" s="7">
         <f t="shared" ref="N56:N61" si="28">SUM(B56,C56,E56)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" s="7">
         <f t="shared" ref="O56:O61" si="29">SUM(G56,H56,J56)</f>
-        <v>835</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43946</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>2</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>5</v>
       </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>2</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="21"/>
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="22"/>
-        <v>381</v>
+        <v>529</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J57" s="7">
         <f t="shared" si="24"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="25"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L57" s="7">
         <f t="shared" si="26"/>
@@ -3655,7 +5002,7 @@
       </c>
       <c r="M57" s="7">
         <f t="shared" si="27"/>
-        <v>876</v>
+        <v>1037</v>
       </c>
       <c r="N57" s="7">
         <f t="shared" si="28"/>
@@ -3663,234 +5010,1299 @@
       </c>
       <c r="O57" s="7">
         <f t="shared" si="29"/>
-        <v>842</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>43947</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>2</v>
       </c>
-      <c r="C58" s="4">
-        <v>2</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="C58" s="3">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="21"/>
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="22"/>
-        <v>383</v>
+        <v>536</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="24"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="25"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L58" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="27"/>
-        <v>881</v>
+        <v>1047</v>
       </c>
       <c r="N58" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O58" s="7">
         <f t="shared" si="29"/>
-        <v>847</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>43948</v>
       </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="4">
-        <v>3</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>1</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="21"/>
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="22"/>
-        <v>386</v>
+        <v>541</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="24"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="25"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L59" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="27"/>
-        <v>886</v>
+        <v>1055</v>
       </c>
       <c r="N59" s="7">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O59" s="7">
         <f t="shared" si="29"/>
-        <v>851</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>43949</v>
       </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="4">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2</v>
+      </c>
+      <c r="F60" s="3">
         <v>2</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="21"/>
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="22"/>
-        <v>387</v>
+        <v>543</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="24"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L60" s="7">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="27"/>
-        <v>891</v>
+        <v>1061</v>
       </c>
       <c r="N60" s="7">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" s="7">
         <f t="shared" si="29"/>
-        <v>854</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43950</v>
       </c>
-      <c r="B61" s="4">
-        <v>0</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="B61" s="3">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="21"/>
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" si="22"/>
-        <v>388</v>
+        <v>546</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="24"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L61" s="7">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="27"/>
-        <v>893</v>
+        <v>1072</v>
       </c>
       <c r="N61" s="7">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O61" s="7">
         <f t="shared" si="29"/>
-        <v>856</v>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>43951</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" ref="G62:G65" si="30">B62+G61</f>
+        <v>365</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" ref="H62:H65" si="31">C62+H61</f>
+        <v>550</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" ref="I62:I65" si="32">D62+I61</f>
+        <v>12</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" ref="J62:J65" si="33">E62+J61</f>
+        <v>130</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" ref="K62:K65" si="34">F62+K61</f>
+        <v>21</v>
+      </c>
+      <c r="L62" s="7">
+        <f t="shared" ref="L62:L65" si="35">SUM(B62:F62)</f>
+        <v>6</v>
+      </c>
+      <c r="M62" s="7">
+        <f t="shared" ref="M62:M65" si="36">SUM(G62:K62)</f>
+        <v>1078</v>
+      </c>
+      <c r="N62" s="7">
+        <f t="shared" ref="N62:N65" si="37">SUM(B62,C62,E62)</f>
+        <v>6</v>
+      </c>
+      <c r="O62" s="7">
+        <f t="shared" ref="O62:O65" si="38">SUM(G62,H62,J62)</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>43952</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="30"/>
+        <v>368</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="31"/>
+        <v>554</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="33"/>
+        <v>130</v>
+      </c>
+      <c r="K63" s="7">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="L63" s="7">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="M63" s="7">
+        <f t="shared" si="36"/>
+        <v>1086</v>
+      </c>
+      <c r="N63" s="7">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="O63" s="7">
+        <f t="shared" si="38"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>43953</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="30"/>
+        <v>370</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="31"/>
+        <v>559</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="33"/>
+        <v>131</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="L64" s="7">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="M64" s="7">
+        <f t="shared" si="36"/>
+        <v>1094</v>
+      </c>
+      <c r="N64" s="7">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="O64" s="7">
+        <f t="shared" si="38"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>43954</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="30"/>
+        <v>373</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="31"/>
+        <v>560</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="33"/>
+        <v>132</v>
+      </c>
+      <c r="K65" s="7">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="L65" s="7">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="M65" s="7">
+        <f t="shared" si="36"/>
+        <v>1099</v>
+      </c>
+      <c r="N65" s="7">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="O65" s="7">
+        <f t="shared" si="38"/>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>43955</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" ref="G66:G72" si="39">B66+G65</f>
+        <v>378</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" ref="H66:H72" si="40">C66+H65</f>
+        <v>563</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" ref="I66:I72" si="41">D66+I65</f>
+        <v>13</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" ref="J66:J72" si="42">E66+J65</f>
+        <v>133</v>
+      </c>
+      <c r="K66" s="7">
+        <f t="shared" ref="K66:K72" si="43">F66+K65</f>
+        <v>21</v>
+      </c>
+      <c r="L66" s="7">
+        <f t="shared" ref="L66:L72" si="44">SUM(B66:F66)</f>
+        <v>9</v>
+      </c>
+      <c r="M66" s="7">
+        <f t="shared" ref="M66:M72" si="45">SUM(G66:K66)</f>
+        <v>1108</v>
+      </c>
+      <c r="N66" s="7">
+        <f t="shared" ref="N66:N72" si="46">SUM(B66,C66,E66)</f>
+        <v>9</v>
+      </c>
+      <c r="O66" s="7">
+        <f t="shared" ref="O66:O72" si="47">SUM(G66,H66,J66)</f>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>43956</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="39"/>
+        <v>381</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="40"/>
+        <v>563</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="42"/>
+        <v>134</v>
+      </c>
+      <c r="K67" s="7">
+        <f t="shared" si="43"/>
+        <v>21</v>
+      </c>
+      <c r="L67" s="7">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="M67" s="7">
+        <f t="shared" si="45"/>
+        <v>1112</v>
+      </c>
+      <c r="N67" s="7">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="O67" s="7">
+        <f t="shared" si="47"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>43957</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="39"/>
+        <v>386</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="40"/>
+        <v>567</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="42"/>
+        <v>135</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="43"/>
+        <v>22</v>
+      </c>
+      <c r="L68" s="7">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" si="45"/>
+        <v>1123</v>
+      </c>
+      <c r="N68" s="7">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="O68" s="7">
+        <f t="shared" si="47"/>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>43958</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="39"/>
+        <v>392</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="40"/>
+        <v>567</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" si="42"/>
+        <v>136</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="43"/>
+        <v>24</v>
+      </c>
+      <c r="L69" s="7">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="45"/>
+        <v>1132</v>
+      </c>
+      <c r="N69" s="7">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="O69" s="7">
+        <f t="shared" si="47"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>43959</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="39"/>
+        <v>392</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="40"/>
+        <v>570</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="42"/>
+        <v>138</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="45"/>
+        <v>1138</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="47"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>43960</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="39"/>
+        <v>394</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="40"/>
+        <v>573</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="42"/>
+        <v>140</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="45"/>
+        <v>1145</v>
+      </c>
+      <c r="N71" s="7">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="47"/>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>43961</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="39"/>
+        <v>395</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="40"/>
+        <v>573</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="42"/>
+        <v>141</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="45"/>
+        <v>1147</v>
+      </c>
+      <c r="N72" s="7">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="O72" s="7">
+        <f t="shared" si="47"/>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>43962</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" ref="G73:G75" si="48">B73+G72</f>
+        <v>396</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" ref="H73:H75" si="49">C73+H72</f>
+        <v>575</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" ref="I73:I75" si="50">D73+I72</f>
+        <v>13</v>
+      </c>
+      <c r="J73" s="7">
+        <f t="shared" ref="J73:J75" si="51">E73+J72</f>
+        <v>141</v>
+      </c>
+      <c r="K73" s="7">
+        <f t="shared" ref="K73:K75" si="52">F73+K72</f>
+        <v>25</v>
+      </c>
+      <c r="L73" s="7">
+        <f t="shared" ref="L73:L75" si="53">SUM(B73:F73)</f>
+        <v>3</v>
+      </c>
+      <c r="M73" s="7">
+        <f t="shared" ref="M73:M75" si="54">SUM(G73:K73)</f>
+        <v>1150</v>
+      </c>
+      <c r="N73" s="7">
+        <f t="shared" ref="N73:N75" si="55">SUM(B73,C73,E73)</f>
+        <v>3</v>
+      </c>
+      <c r="O73" s="7">
+        <f t="shared" ref="O73:O75" si="56">SUM(G73,H73,J73)</f>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>43963</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="48"/>
+        <v>397</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="49"/>
+        <v>578</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="50"/>
+        <v>13</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="51"/>
+        <v>141</v>
+      </c>
+      <c r="K74" s="7">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="L74" s="7">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="M74" s="7">
+        <f t="shared" si="54"/>
+        <v>1154</v>
+      </c>
+      <c r="N74" s="7">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="O74" s="7">
+        <f t="shared" si="56"/>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>43964</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="48"/>
+        <v>398</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="49"/>
+        <v>578</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="50"/>
+        <v>13</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="51"/>
+        <v>141</v>
+      </c>
+      <c r="K75" s="7">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="L75" s="7">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="M75" s="7">
+        <f t="shared" si="54"/>
+        <v>1155</v>
+      </c>
+      <c r="N75" s="7">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <f t="shared" si="56"/>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>43965</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" ref="G76:G78" si="57">B76+G75</f>
+        <v>398</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" ref="H76:H78" si="58">C76+H75</f>
+        <v>580</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" ref="I76:I78" si="59">D76+I75</f>
+        <v>14</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" ref="J76:J78" si="60">E76+J75</f>
+        <v>141</v>
+      </c>
+      <c r="K76" s="7">
+        <f t="shared" ref="K76:K78" si="61">F76+K75</f>
+        <v>25</v>
+      </c>
+      <c r="L76" s="7">
+        <f t="shared" ref="L76:L78" si="62">SUM(B76:F76)</f>
+        <v>3</v>
+      </c>
+      <c r="M76" s="7">
+        <f t="shared" ref="M76:M78" si="63">SUM(G76:K76)</f>
+        <v>1158</v>
+      </c>
+      <c r="N76" s="7">
+        <f t="shared" ref="N76:N78" si="64">SUM(B76,C76,E76)</f>
+        <v>2</v>
+      </c>
+      <c r="O76" s="7">
+        <f t="shared" ref="O76:O78" si="65">SUM(G76,H76,J76)</f>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>43966</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" si="57"/>
+        <v>399</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="58"/>
+        <v>580</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="60"/>
+        <v>141</v>
+      </c>
+      <c r="K77" s="7">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="L77" s="7">
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="M77" s="7">
+        <f t="shared" si="63"/>
+        <v>1160</v>
+      </c>
+      <c r="N77" s="7">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O77" s="7">
+        <f t="shared" si="65"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>43967</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <f t="shared" si="57"/>
+        <v>400</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" si="58"/>
+        <v>582</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="J78" s="7">
+        <f t="shared" si="60"/>
+        <v>141</v>
+      </c>
+      <c r="K78" s="7">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="L78" s="7">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="M78" s="7">
+        <f t="shared" si="63"/>
+        <v>1163</v>
+      </c>
+      <c r="N78" s="7">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="O78" s="7">
+        <f t="shared" si="65"/>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>43968</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>4</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" ref="G79:G80" si="66">B79+G78</f>
+        <v>400</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" ref="H79:H80" si="67">C79+H78</f>
+        <v>586</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" ref="I79:I80" si="68">D79+I78</f>
+        <v>15</v>
+      </c>
+      <c r="J79" s="7">
+        <f t="shared" ref="J79:J80" si="69">E79+J78</f>
+        <v>141</v>
+      </c>
+      <c r="K79" s="7">
+        <f t="shared" ref="K79:K80" si="70">F79+K78</f>
+        <v>25</v>
+      </c>
+      <c r="L79" s="7">
+        <f t="shared" ref="L79:L80" si="71">SUM(B79:F79)</f>
+        <v>4</v>
+      </c>
+      <c r="M79" s="7">
+        <f t="shared" ref="M79:M80" si="72">SUM(G79:K79)</f>
+        <v>1167</v>
+      </c>
+      <c r="N79" s="7">
+        <f t="shared" ref="N79:N80" si="73">SUM(B79,C79,E79)</f>
+        <v>4</v>
+      </c>
+      <c r="O79" s="7">
+        <f t="shared" ref="O79:O80" si="74">SUM(G79,H79,J79)</f>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>43969</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" si="66"/>
+        <v>400</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="67"/>
+        <v>587</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" si="68"/>
+        <v>15</v>
+      </c>
+      <c r="J80" s="7">
+        <f t="shared" si="69"/>
+        <v>141</v>
+      </c>
+      <c r="K80" s="7">
+        <f t="shared" si="70"/>
+        <v>25</v>
+      </c>
+      <c r="L80" s="7">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="M80" s="7">
+        <f t="shared" si="72"/>
+        <v>1168</v>
+      </c>
+      <c r="N80" s="7">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="O80" s="7">
+        <f t="shared" si="74"/>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NEL_deaths.xlsx
+++ b/NEL_deaths.xlsx
@@ -104,7 +104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,16 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,11 +189,66 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,11 +317,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CumBHRUTBartsHom</c:v>
+                  <c:v>NELdaily</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -288,10 +340,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$80</c:f>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>43891</c:v>
                 </c:pt>
@@ -528,16 +580,79 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$80</c:f>
+              <c:f>Sheet1!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -557,223 +672,286 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>725</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>787</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>818</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>842</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>888</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>914</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1017</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1107</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1109</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1116</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1119</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1127</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1128</c:v>
+                <c:pt idx="96">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,16 +1703,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>340177</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>84364</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1819,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,28 +2018,28 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L1" t="s">
@@ -1896,39 +2074,39 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f t="shared" ref="H2:K2" si="0">C2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <f>SUM(B2:F2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <f>SUM(G2:L2)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>SUM(B2,C2,E2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <f>SUM(G2,H2,J2)</f>
         <v>0</v>
       </c>
@@ -1952,39 +2130,39 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>B3+G2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:K18" si="1">C3+H2</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f t="shared" ref="L3:L54" si="2">SUM(B3:F3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <f t="shared" ref="M3:M34" si="3">SUM(G3:K3)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f t="shared" ref="N3:N54" si="4">SUM(B3,C3,E3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <f t="shared" ref="O3:O54" si="5">SUM(G3,H3,J3)</f>
         <v>0</v>
       </c>
@@ -2008,39 +2186,39 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G54" si="6">B4+G3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2064,39 +2242,39 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2120,39 +2298,39 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2176,39 +2354,39 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2232,39 +2410,39 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2288,39 +2466,39 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2344,39 +2522,39 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2400,39 +2578,39 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2456,39 +2634,39 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2512,39 +2690,39 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -2568,39 +2746,39 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -2624,39 +2802,39 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -2680,39 +2858,39 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -2736,39 +2914,39 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -2792,39 +2970,39 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -2848,39 +3026,39 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" ref="H19:H54" si="7">C19+H18</f>
         <v>11</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" ref="I19:I54" si="8">D19+I18</f>
         <v>0</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f t="shared" ref="J19:J54" si="9">E19+J18</f>
         <v>2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" ref="K19:K54" si="10">F19+K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -2904,39 +3082,39 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -2960,39 +3138,39 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
@@ -3016,39 +3194,39 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
@@ -3072,39 +3250,39 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
@@ -3128,39 +3306,39 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
@@ -3184,39 +3362,39 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
@@ -3226,7 +3404,7 @@
         <v>43915</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
         <v>8</v>
@@ -3240,41 +3418,41 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="H26" s="7">
+        <v>35</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M26" s="7">
+        <v>20</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="5"/>
         <v>92</v>
-      </c>
-      <c r="N26" s="7">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="O26" s="7">
-        <f t="shared" si="5"/>
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3282,7 +3460,7 @@
         <v>43916</v>
       </c>
       <c r="B27" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>11</v>
@@ -3296,39 +3474,39 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="M27" s="7">
+        <v>23</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="O27" s="7">
+        <v>23</v>
+      </c>
+      <c r="O27" s="6">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
@@ -3352,39 +3530,39 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
@@ -3397,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -3408,41 +3586,41 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="I29" s="7">
+        <v>82</v>
+      </c>
+      <c r="I29" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="M29" s="7">
+        <v>21</v>
+      </c>
+      <c r="M29" s="6">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="N29" s="7">
+        <v>159</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="O29" s="7">
+        <v>21</v>
+      </c>
+      <c r="O29" s="6">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3450,55 +3628,55 @@
         <v>43919</v>
       </c>
       <c r="B30" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="H30" s="7">
+        <v>67</v>
+      </c>
+      <c r="H30" s="6">
         <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="I30" s="7">
+        <v>102</v>
+      </c>
+      <c r="I30" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="K30" s="7">
+        <v>24</v>
+      </c>
+      <c r="K30" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="M30" s="7">
+        <v>35</v>
+      </c>
+      <c r="M30" s="6">
         <f t="shared" si="3"/>
-        <v>201</v>
-      </c>
-      <c r="N30" s="7">
+        <v>194</v>
+      </c>
+      <c r="N30" s="6">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="O30" s="7">
+        <v>35</v>
+      </c>
+      <c r="O30" s="6">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3506,55 +3684,55 @@
         <v>43920</v>
       </c>
       <c r="B31" s="3">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
         <v>15</v>
       </c>
-      <c r="C31" s="3">
-        <v>16</v>
-      </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="H31" s="7">
+        <v>77</v>
+      </c>
+      <c r="H31" s="6">
         <f t="shared" si="7"/>
-        <v>122</v>
-      </c>
-      <c r="I31" s="7">
+        <v>117</v>
+      </c>
+      <c r="I31" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="K31" s="7">
+        <v>25</v>
+      </c>
+      <c r="K31" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M31" s="7">
+        <v>26</v>
+      </c>
+      <c r="M31" s="6">
         <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-      <c r="N31" s="7">
+        <v>220</v>
+      </c>
+      <c r="N31" s="6">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="O31" s="7">
+        <v>26</v>
+      </c>
+      <c r="O31" s="6">
         <f t="shared" si="5"/>
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3562,7 +3740,7 @@
         <v>43921</v>
       </c>
       <c r="B32" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C32" s="3">
         <v>15</v>
@@ -3571,46 +3749,46 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <f t="shared" si="7"/>
-        <v>137</v>
-      </c>
-      <c r="I32" s="7">
+        <v>132</v>
+      </c>
+      <c r="I32" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="K32" s="7">
+        <v>28</v>
+      </c>
+      <c r="K32" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="M32" s="7">
+        <v>29</v>
+      </c>
+      <c r="M32" s="6">
         <f t="shared" si="3"/>
-        <v>258</v>
-      </c>
-      <c r="N32" s="7">
+        <v>249</v>
+      </c>
+      <c r="N32" s="6">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="O32" s="7">
+        <v>28</v>
+      </c>
+      <c r="O32" s="6">
         <f t="shared" si="5"/>
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3618,55 +3796,55 @@
         <v>43922</v>
       </c>
       <c r="B33" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <f t="shared" si="6"/>
-        <v>104</v>
-      </c>
-      <c r="H33" s="7">
+        <v>103</v>
+      </c>
+      <c r="H33" s="6">
         <f t="shared" si="7"/>
-        <v>157</v>
-      </c>
-      <c r="I33" s="7">
+        <v>154</v>
+      </c>
+      <c r="I33" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="K33" s="7">
+        <v>32</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M33" s="7">
+        <v>42</v>
+      </c>
+      <c r="M33" s="6">
         <f t="shared" si="3"/>
-        <v>298</v>
-      </c>
-      <c r="N33" s="7">
+        <v>291</v>
+      </c>
+      <c r="N33" s="6">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="O33" s="7">
+        <v>42</v>
+      </c>
+      <c r="O33" s="6">
         <f t="shared" si="5"/>
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -3674,55 +3852,55 @@
         <v>43923</v>
       </c>
       <c r="B34" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-      <c r="I34" s="7">
+        <v>171</v>
+      </c>
+      <c r="I34" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="M34" s="7">
-        <f t="shared" si="3"/>
-        <v>334</v>
-      </c>
-      <c r="N34" s="7">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -3733,7 +3911,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -3744,39 +3922,39 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M35" s="7">
+        <v>36</v>
+      </c>
+      <c r="M35" s="6">
         <f t="shared" ref="M35:M54" si="11">SUM(G35:K35)</f>
         <v>364</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="O35" s="7">
+        <v>35</v>
+      </c>
+      <c r="O35" s="6">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
@@ -3789,7 +3967,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -3800,41 +3978,41 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <f t="shared" si="6"/>
         <v>141</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="7"/>
-        <v>212</v>
-      </c>
-      <c r="I36" s="7">
+        <v>213</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f t="shared" si="9"/>
         <v>47</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="M36" s="7">
+        <v>41</v>
+      </c>
+      <c r="M36" s="6">
         <f t="shared" si="11"/>
-        <v>404</v>
-      </c>
-      <c r="N36" s="7">
+        <v>405</v>
+      </c>
+      <c r="N36" s="6">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="O36" s="7">
+        <v>41</v>
+      </c>
+      <c r="O36" s="6">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3856,41 +4034,41 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <f t="shared" si="6"/>
         <v>154</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="7"/>
-        <v>234</v>
-      </c>
-      <c r="I37" s="7">
+        <v>235</v>
+      </c>
+      <c r="I37" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <f t="shared" si="11"/>
-        <v>444</v>
-      </c>
-      <c r="N37" s="7">
+        <v>445</v>
+      </c>
+      <c r="N37" s="6">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <f t="shared" si="5"/>
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3912,41 +4090,41 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f t="shared" si="7"/>
-        <v>257</v>
-      </c>
-      <c r="I38" s="7">
+        <v>258</v>
+      </c>
+      <c r="I38" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <f t="shared" si="11"/>
-        <v>487</v>
-      </c>
-      <c r="N38" s="7">
+        <v>488</v>
+      </c>
+      <c r="N38" s="6">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <f t="shared" si="5"/>
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3968,41 +4146,41 @@
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <f t="shared" si="6"/>
         <v>188</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-      <c r="I39" s="7">
+        <v>281</v>
+      </c>
+      <c r="I39" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <f t="shared" si="11"/>
-        <v>534</v>
-      </c>
-      <c r="N39" s="7">
+        <v>535</v>
+      </c>
+      <c r="N39" s="6">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <f t="shared" si="5"/>
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -4024,41 +4202,41 @@
       <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <f t="shared" si="6"/>
         <v>202</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <f t="shared" si="7"/>
-        <v>310</v>
-      </c>
-      <c r="I40" s="7">
+        <v>311</v>
+      </c>
+      <c r="I40" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <f t="shared" si="11"/>
-        <v>587</v>
-      </c>
-      <c r="N40" s="7">
+        <v>588</v>
+      </c>
+      <c r="N40" s="6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <f t="shared" si="5"/>
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -4069,7 +4247,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -4080,41 +4258,41 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-      <c r="I41" s="7">
+        <v>332</v>
+      </c>
+      <c r="I41" s="6">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f t="shared" si="9"/>
         <v>71</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="11"/>
+        <v>634</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="M41" s="7">
-        <f t="shared" si="11"/>
-        <v>632</v>
-      </c>
-      <c r="N41" s="7">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <f t="shared" si="5"/>
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -4136,41 +4314,41 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <f t="shared" si="6"/>
         <v>228</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <f t="shared" si="7"/>
-        <v>351</v>
-      </c>
-      <c r="I42" s="7">
+        <v>353</v>
+      </c>
+      <c r="I42" s="6">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <f t="shared" si="11"/>
-        <v>669</v>
-      </c>
-      <c r="N42" s="7">
+        <v>671</v>
+      </c>
+      <c r="N42" s="6">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="6">
         <f t="shared" si="5"/>
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -4192,41 +4370,41 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <f t="shared" si="6"/>
         <v>236</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <f t="shared" si="7"/>
-        <v>369</v>
-      </c>
-      <c r="I43" s="7">
+        <v>371</v>
+      </c>
+      <c r="I43" s="6">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <f t="shared" si="9"/>
         <v>82</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <f t="shared" si="11"/>
-        <v>699</v>
-      </c>
-      <c r="N43" s="7">
+        <v>701</v>
+      </c>
+      <c r="N43" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="6">
         <f t="shared" si="5"/>
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -4234,7 +4412,7 @@
         <v>43933</v>
       </c>
       <c r="B44" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="3">
         <v>14</v>
@@ -4248,41 +4426,41 @@
       <c r="F44" s="3">
         <v>3</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <f t="shared" si="6"/>
-        <v>254</v>
-      </c>
-      <c r="H44" s="7">
+        <v>255</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="7"/>
-        <v>383</v>
-      </c>
-      <c r="I44" s="7">
+        <v>385</v>
+      </c>
+      <c r="I44" s="6">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <f t="shared" si="9"/>
         <v>88</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="M44" s="7">
+        <v>43</v>
+      </c>
+      <c r="M44" s="6">
         <f t="shared" si="11"/>
-        <v>741</v>
-      </c>
-      <c r="N44" s="7">
+        <v>744</v>
+      </c>
+      <c r="N44" s="6">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="O44" s="7">
+        <v>39</v>
+      </c>
+      <c r="O44" s="6">
         <f t="shared" si="5"/>
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -4293,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -4304,41 +4482,41 @@
       <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <f t="shared" si="6"/>
-        <v>269</v>
-      </c>
-      <c r="H45" s="7">
+        <v>270</v>
+      </c>
+      <c r="H45" s="6">
         <f t="shared" si="7"/>
-        <v>399</v>
-      </c>
-      <c r="I45" s="7">
+        <v>402</v>
+      </c>
+      <c r="I45" s="6">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="M45" s="7">
-        <f t="shared" si="11"/>
-        <v>776</v>
-      </c>
-      <c r="N45" s="7">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <f t="shared" si="5"/>
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -4349,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -4360,41 +4538,41 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <f t="shared" si="6"/>
-        <v>273</v>
-      </c>
-      <c r="H46" s="7">
+        <v>274</v>
+      </c>
+      <c r="H46" s="6">
         <f t="shared" si="7"/>
-        <v>419</v>
-      </c>
-      <c r="I46" s="7">
+        <v>423</v>
+      </c>
+      <c r="I46" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="11"/>
+        <v>810</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="M46" s="7">
-        <f t="shared" si="11"/>
-        <v>805</v>
-      </c>
-      <c r="N46" s="7">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <f t="shared" si="5"/>
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -4416,41 +4594,41 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <f t="shared" si="6"/>
-        <v>285</v>
-      </c>
-      <c r="H47" s="7">
+        <v>286</v>
+      </c>
+      <c r="H47" s="6">
         <f t="shared" si="7"/>
-        <v>432</v>
-      </c>
-      <c r="I47" s="7">
+        <v>436</v>
+      </c>
+      <c r="I47" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <f t="shared" si="9"/>
         <v>101</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <f t="shared" si="11"/>
-        <v>836</v>
-      </c>
-      <c r="N47" s="7">
+        <v>841</v>
+      </c>
+      <c r="N47" s="6">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="6">
         <f t="shared" si="5"/>
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -4472,41 +4650,41 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <f t="shared" si="6"/>
-        <v>293</v>
-      </c>
-      <c r="H48" s="7">
+        <v>294</v>
+      </c>
+      <c r="H48" s="6">
         <f t="shared" si="7"/>
-        <v>444</v>
-      </c>
-      <c r="I48" s="7">
+        <v>448</v>
+      </c>
+      <c r="I48" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <f t="shared" si="9"/>
         <v>105</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <f t="shared" si="11"/>
-        <v>860</v>
-      </c>
-      <c r="N48" s="7">
+        <v>865</v>
+      </c>
+      <c r="N48" s="6">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <f t="shared" si="5"/>
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -4514,7 +4692,7 @@
         <v>43938</v>
       </c>
       <c r="B49" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3">
         <v>13</v>
@@ -4528,41 +4706,41 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <f t="shared" si="6"/>
-        <v>299</v>
-      </c>
-      <c r="H49" s="7">
+        <v>301</v>
+      </c>
+      <c r="H49" s="6">
         <f t="shared" si="7"/>
-        <v>457</v>
-      </c>
-      <c r="I49" s="7">
+        <v>461</v>
+      </c>
+      <c r="I49" s="6">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="11"/>
+        <v>889</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="M49" s="7">
-        <f t="shared" si="11"/>
-        <v>883</v>
-      </c>
-      <c r="N49" s="7">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <f t="shared" si="5"/>
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -4584,41 +4762,41 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <f t="shared" si="6"/>
-        <v>310</v>
-      </c>
-      <c r="H50" s="7">
+        <v>312</v>
+      </c>
+      <c r="H50" s="6">
         <f t="shared" si="7"/>
-        <v>465</v>
-      </c>
-      <c r="I50" s="7">
+        <v>469</v>
+      </c>
+      <c r="I50" s="6">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <f t="shared" si="9"/>
         <v>113</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <f t="shared" si="11"/>
-        <v>907</v>
-      </c>
-      <c r="N50" s="7">
+        <v>913</v>
+      </c>
+      <c r="N50" s="6">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <f t="shared" si="5"/>
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -4640,41 +4818,41 @@
       <c r="F51" s="3">
         <v>1</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <f t="shared" si="6"/>
-        <v>319</v>
-      </c>
-      <c r="H51" s="7">
+        <v>321</v>
+      </c>
+      <c r="H51" s="6">
         <f t="shared" si="7"/>
-        <v>479</v>
-      </c>
-      <c r="I51" s="7">
+        <v>483</v>
+      </c>
+      <c r="I51" s="6">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <f t="shared" si="9"/>
         <v>116</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <f t="shared" si="11"/>
-        <v>935</v>
-      </c>
-      <c r="N51" s="7">
+        <v>941</v>
+      </c>
+      <c r="N51" s="6">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <f t="shared" si="5"/>
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -4696,41 +4874,41 @@
       <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <f t="shared" si="6"/>
-        <v>328</v>
-      </c>
-      <c r="H52" s="7">
+        <v>330</v>
+      </c>
+      <c r="H52" s="6">
         <f t="shared" si="7"/>
-        <v>491</v>
-      </c>
-      <c r="I52" s="7">
+        <v>495</v>
+      </c>
+      <c r="I52" s="6">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="6">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="6">
         <f t="shared" si="11"/>
-        <v>962</v>
-      </c>
-      <c r="N52" s="7">
+        <v>968</v>
+      </c>
+      <c r="N52" s="6">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="6">
         <f t="shared" si="5"/>
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -4741,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -4752,41 +4930,41 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <f t="shared" si="6"/>
-        <v>332</v>
-      </c>
-      <c r="H53" s="7">
+        <v>334</v>
+      </c>
+      <c r="H53" s="6">
         <f t="shared" si="7"/>
-        <v>503</v>
-      </c>
-      <c r="I53" s="7">
+        <v>508</v>
+      </c>
+      <c r="I53" s="6">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <f t="shared" si="9"/>
         <v>122</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="M53" s="7">
+        <v>19</v>
+      </c>
+      <c r="M53" s="6">
         <f t="shared" si="11"/>
-        <v>980</v>
-      </c>
-      <c r="N53" s="7">
+        <v>987</v>
+      </c>
+      <c r="N53" s="6">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="O53" s="7">
+        <v>19</v>
+      </c>
+      <c r="O53" s="6">
         <f t="shared" si="5"/>
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -4808,41 +4986,41 @@
       <c r="F54" s="3">
         <v>3</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <f t="shared" si="6"/>
-        <v>339</v>
-      </c>
-      <c r="H54" s="7">
+        <v>341</v>
+      </c>
+      <c r="H54" s="6">
         <f t="shared" si="7"/>
-        <v>513</v>
-      </c>
-      <c r="I54" s="7">
+        <v>518</v>
+      </c>
+      <c r="I54" s="6">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <f t="shared" si="9"/>
         <v>122</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="N54" s="7">
+        <v>1007</v>
+      </c>
+      <c r="N54" s="6">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <f t="shared" si="5"/>
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -4864,41 +5042,41 @@
       <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <f t="shared" ref="G55" si="12">B55+G54</f>
-        <v>342</v>
-      </c>
-      <c r="H55" s="7">
+        <v>344</v>
+      </c>
+      <c r="H55" s="6">
         <f t="shared" ref="H55" si="13">C55+H54</f>
-        <v>521</v>
-      </c>
-      <c r="I55" s="7">
+        <v>526</v>
+      </c>
+      <c r="I55" s="6">
         <f t="shared" ref="I55" si="14">D55+I54</f>
         <v>12</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <f t="shared" ref="J55" si="15">E55+J54</f>
         <v>124</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <f t="shared" ref="K55" si="16">F55+K54</f>
         <v>15</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <f t="shared" ref="L55" si="17">SUM(B55:F55)</f>
         <v>14</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <f t="shared" ref="M55" si="18">SUM(G55:K55)</f>
-        <v>1014</v>
-      </c>
-      <c r="N55" s="7">
+        <v>1021</v>
+      </c>
+      <c r="N55" s="6">
         <f t="shared" ref="N55" si="19">SUM(B55,C55,E55)</f>
         <v>13</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="6">
         <f t="shared" ref="O55" si="20">SUM(G55,H55,J55)</f>
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -4920,41 +5098,41 @@
       <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <f t="shared" ref="G56:G61" si="21">B56+G55</f>
-        <v>352</v>
-      </c>
-      <c r="H56" s="7">
+        <v>354</v>
+      </c>
+      <c r="H56" s="6">
         <f t="shared" ref="H56:H61" si="22">C56+H55</f>
-        <v>524</v>
-      </c>
-      <c r="I56" s="7">
+        <v>529</v>
+      </c>
+      <c r="I56" s="6">
         <f t="shared" ref="I56:I61" si="23">D56+I55</f>
         <v>12</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <f t="shared" ref="J56:J61" si="24">E56+J55</f>
         <v>124</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <f t="shared" ref="K56:K61" si="25">F56+K55</f>
         <v>16</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <f t="shared" ref="L56:L61" si="26">SUM(B56:F56)</f>
         <v>14</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <f t="shared" ref="M56:M61" si="27">SUM(G56:K56)</f>
-        <v>1028</v>
-      </c>
-      <c r="N56" s="7">
+        <v>1035</v>
+      </c>
+      <c r="N56" s="6">
         <f t="shared" ref="N56:N61" si="28">SUM(B56,C56,E56)</f>
         <v>13</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="6">
         <f t="shared" ref="O56:O61" si="29">SUM(G56,H56,J56)</f>
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4976,41 +5154,41 @@
       <c r="F57" s="3">
         <v>2</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <f t="shared" si="21"/>
-        <v>354</v>
-      </c>
-      <c r="H57" s="7">
+        <v>356</v>
+      </c>
+      <c r="H57" s="6">
         <f t="shared" si="22"/>
-        <v>529</v>
-      </c>
-      <c r="I57" s="7">
+        <v>534</v>
+      </c>
+      <c r="I57" s="6">
         <f t="shared" si="23"/>
         <v>12</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <f t="shared" si="24"/>
         <v>124</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="6">
         <f t="shared" si="27"/>
-        <v>1037</v>
-      </c>
-      <c r="N57" s="7">
+        <v>1044</v>
+      </c>
+      <c r="N57" s="6">
         <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="6">
         <f t="shared" si="29"/>
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -5032,41 +5210,41 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="6">
         <f t="shared" si="21"/>
-        <v>356</v>
-      </c>
-      <c r="H58" s="7">
+        <v>358</v>
+      </c>
+      <c r="H58" s="6">
         <f t="shared" si="22"/>
-        <v>536</v>
-      </c>
-      <c r="I58" s="7">
+        <v>541</v>
+      </c>
+      <c r="I58" s="6">
         <f t="shared" si="23"/>
         <v>12</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <f t="shared" si="24"/>
         <v>125</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="6">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="6">
         <f t="shared" si="27"/>
-        <v>1047</v>
-      </c>
-      <c r="N58" s="7">
+        <v>1054</v>
+      </c>
+      <c r="N58" s="6">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="6">
         <f t="shared" si="29"/>
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -5088,41 +5266,41 @@
       <c r="F59" s="3">
         <v>1</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <f t="shared" si="21"/>
-        <v>358</v>
-      </c>
-      <c r="H59" s="7">
+        <v>360</v>
+      </c>
+      <c r="H59" s="6">
         <f t="shared" si="22"/>
-        <v>541</v>
-      </c>
-      <c r="I59" s="7">
+        <v>546</v>
+      </c>
+      <c r="I59" s="6">
         <f t="shared" si="23"/>
         <v>12</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <f t="shared" si="24"/>
         <v>125</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="6">
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="6">
         <f t="shared" si="27"/>
-        <v>1055</v>
-      </c>
-      <c r="N59" s="7">
+        <v>1062</v>
+      </c>
+      <c r="N59" s="6">
         <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <f t="shared" si="29"/>
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -5144,41 +5322,41 @@
       <c r="F60" s="3">
         <v>2</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <f t="shared" si="21"/>
-        <v>358</v>
-      </c>
-      <c r="H60" s="7">
+        <v>360</v>
+      </c>
+      <c r="H60" s="6">
         <f t="shared" si="22"/>
-        <v>543</v>
-      </c>
-      <c r="I60" s="7">
+        <v>548</v>
+      </c>
+      <c r="I60" s="6">
         <f t="shared" si="23"/>
         <v>12</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <f t="shared" si="24"/>
         <v>127</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="6">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="6">
         <f t="shared" si="27"/>
-        <v>1061</v>
-      </c>
-      <c r="N60" s="7">
+        <v>1068</v>
+      </c>
+      <c r="N60" s="6">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="6">
         <f t="shared" si="29"/>
-        <v>1028</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -5198,43 +5376,43 @@
         <v>3</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
         <f t="shared" si="21"/>
-        <v>363</v>
-      </c>
-      <c r="H61" s="7">
+        <v>365</v>
+      </c>
+      <c r="H61" s="6">
         <f t="shared" si="22"/>
-        <v>546</v>
-      </c>
-      <c r="I61" s="7">
+        <v>551</v>
+      </c>
+      <c r="I61" s="6">
         <f t="shared" si="23"/>
         <v>12</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <f t="shared" si="24"/>
         <v>130</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="L61" s="7">
+        <v>22</v>
+      </c>
+      <c r="L61" s="6">
         <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="M61" s="7">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6">
         <f t="shared" si="27"/>
-        <v>1072</v>
-      </c>
-      <c r="N61" s="7">
+        <v>1080</v>
+      </c>
+      <c r="N61" s="6">
         <f t="shared" si="28"/>
         <v>11</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="6">
         <f t="shared" si="29"/>
-        <v>1039</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -5256,41 +5434,41 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <f t="shared" ref="G62:G65" si="30">B62+G61</f>
-        <v>365</v>
-      </c>
-      <c r="H62" s="7">
+        <v>367</v>
+      </c>
+      <c r="H62" s="6">
         <f t="shared" ref="H62:H65" si="31">C62+H61</f>
-        <v>550</v>
-      </c>
-      <c r="I62" s="7">
+        <v>555</v>
+      </c>
+      <c r="I62" s="6">
         <f t="shared" ref="I62:I65" si="32">D62+I61</f>
         <v>12</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <f t="shared" ref="J62:J65" si="33">E62+J61</f>
         <v>130</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="6">
         <f t="shared" ref="K62:K65" si="34">F62+K61</f>
-        <v>21</v>
-      </c>
-      <c r="L62" s="7">
+        <v>22</v>
+      </c>
+      <c r="L62" s="6">
         <f t="shared" ref="L62:L65" si="35">SUM(B62:F62)</f>
         <v>6</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="6">
         <f t="shared" ref="M62:M65" si="36">SUM(G62:K62)</f>
-        <v>1078</v>
-      </c>
-      <c r="N62" s="7">
+        <v>1086</v>
+      </c>
+      <c r="N62" s="6">
         <f t="shared" ref="N62:N65" si="37">SUM(B62,C62,E62)</f>
         <v>6</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="6">
         <f t="shared" ref="O62:O65" si="38">SUM(G62,H62,J62)</f>
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -5310,43 +5488,43 @@
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
         <f t="shared" si="30"/>
-        <v>368</v>
-      </c>
-      <c r="H63" s="7">
+        <v>370</v>
+      </c>
+      <c r="H63" s="6">
         <f t="shared" si="31"/>
-        <v>554</v>
-      </c>
-      <c r="I63" s="7">
+        <v>559</v>
+      </c>
+      <c r="I63" s="6">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <f t="shared" si="33"/>
         <v>130</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="6">
         <f t="shared" si="34"/>
-        <v>21</v>
-      </c>
-      <c r="L63" s="7">
+        <v>23</v>
+      </c>
+      <c r="L63" s="6">
         <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="M63" s="7">
+        <v>9</v>
+      </c>
+      <c r="M63" s="6">
         <f t="shared" si="36"/>
-        <v>1086</v>
-      </c>
-      <c r="N63" s="7">
+        <v>1095</v>
+      </c>
+      <c r="N63" s="6">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="6">
         <f t="shared" si="38"/>
-        <v>1052</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -5368,41 +5546,41 @@
       <c r="F64" s="3">
         <v>0</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <f t="shared" si="30"/>
-        <v>370</v>
-      </c>
-      <c r="H64" s="7">
+        <v>372</v>
+      </c>
+      <c r="H64" s="6">
         <f t="shared" si="31"/>
-        <v>559</v>
-      </c>
-      <c r="I64" s="7">
+        <v>564</v>
+      </c>
+      <c r="I64" s="6">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <f t="shared" si="33"/>
         <v>131</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <f t="shared" si="34"/>
-        <v>21</v>
-      </c>
-      <c r="L64" s="7">
+        <v>23</v>
+      </c>
+      <c r="L64" s="6">
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <f t="shared" si="36"/>
-        <v>1094</v>
-      </c>
-      <c r="N64" s="7">
+        <v>1103</v>
+      </c>
+      <c r="N64" s="6">
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="6">
         <f t="shared" si="38"/>
-        <v>1060</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -5422,43 +5600,43 @@
         <v>1</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
         <f t="shared" si="30"/>
-        <v>373</v>
-      </c>
-      <c r="H65" s="7">
+        <v>375</v>
+      </c>
+      <c r="H65" s="6">
         <f t="shared" si="31"/>
-        <v>560</v>
-      </c>
-      <c r="I65" s="7">
+        <v>565</v>
+      </c>
+      <c r="I65" s="6">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <f t="shared" si="33"/>
         <v>132</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="6">
         <f t="shared" si="34"/>
-        <v>21</v>
-      </c>
-      <c r="L65" s="7">
+        <v>24</v>
+      </c>
+      <c r="L65" s="6">
         <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
-      <c r="M65" s="7">
+        <v>6</v>
+      </c>
+      <c r="M65" s="6">
         <f t="shared" si="36"/>
-        <v>1099</v>
-      </c>
-      <c r="N65" s="7">
+        <v>1109</v>
+      </c>
+      <c r="N65" s="6">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O65" s="6">
         <f t="shared" si="38"/>
-        <v>1065</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -5480,41 +5658,41 @@
       <c r="F66" s="3">
         <v>0</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <f t="shared" ref="G66:G72" si="39">B66+G65</f>
-        <v>378</v>
-      </c>
-      <c r="H66" s="7">
+        <v>380</v>
+      </c>
+      <c r="H66" s="6">
         <f t="shared" ref="H66:H72" si="40">C66+H65</f>
-        <v>563</v>
-      </c>
-      <c r="I66" s="7">
+        <v>568</v>
+      </c>
+      <c r="I66" s="6">
         <f t="shared" ref="I66:I72" si="41">D66+I65</f>
         <v>13</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <f t="shared" ref="J66:J72" si="42">E66+J65</f>
         <v>133</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="6">
         <f t="shared" ref="K66:K72" si="43">F66+K65</f>
-        <v>21</v>
-      </c>
-      <c r="L66" s="7">
+        <v>24</v>
+      </c>
+      <c r="L66" s="6">
         <f t="shared" ref="L66:L72" si="44">SUM(B66:F66)</f>
         <v>9</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="6">
         <f t="shared" ref="M66:M72" si="45">SUM(G66:K66)</f>
-        <v>1108</v>
-      </c>
-      <c r="N66" s="7">
+        <v>1118</v>
+      </c>
+      <c r="N66" s="6">
         <f t="shared" ref="N66:N72" si="46">SUM(B66,C66,E66)</f>
         <v>9</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="6">
         <f t="shared" ref="O66:O72" si="47">SUM(G66,H66,J66)</f>
-        <v>1074</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -5536,41 +5714,41 @@
       <c r="F67" s="3">
         <v>0</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <f t="shared" si="39"/>
-        <v>381</v>
-      </c>
-      <c r="H67" s="7">
+        <v>383</v>
+      </c>
+      <c r="H67" s="6">
         <f t="shared" si="40"/>
-        <v>563</v>
-      </c>
-      <c r="I67" s="7">
+        <v>568</v>
+      </c>
+      <c r="I67" s="6">
         <f t="shared" si="41"/>
         <v>13</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <f t="shared" si="42"/>
         <v>134</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="6">
         <f t="shared" si="43"/>
-        <v>21</v>
-      </c>
-      <c r="L67" s="7">
+        <v>24</v>
+      </c>
+      <c r="L67" s="6">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="6">
         <f t="shared" si="45"/>
-        <v>1112</v>
-      </c>
-      <c r="N67" s="7">
+        <v>1122</v>
+      </c>
+      <c r="N67" s="6">
         <f t="shared" si="46"/>
         <v>4</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="6">
         <f t="shared" si="47"/>
-        <v>1078</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -5584,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -5592,41 +5770,41 @@
       <c r="F68" s="3">
         <v>1</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="6">
         <f t="shared" si="39"/>
-        <v>386</v>
-      </c>
-      <c r="H68" s="7">
+        <v>388</v>
+      </c>
+      <c r="H68" s="6">
         <f t="shared" si="40"/>
-        <v>567</v>
-      </c>
-      <c r="I68" s="7">
+        <v>572</v>
+      </c>
+      <c r="I68" s="6">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="J68" s="7">
+        <v>14</v>
+      </c>
+      <c r="J68" s="6">
         <f t="shared" si="42"/>
         <v>135</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="6">
         <f t="shared" si="43"/>
-        <v>22</v>
-      </c>
-      <c r="L68" s="7">
+        <v>25</v>
+      </c>
+      <c r="L68" s="6">
         <f t="shared" si="44"/>
-        <v>11</v>
-      </c>
-      <c r="M68" s="7">
+        <v>12</v>
+      </c>
+      <c r="M68" s="6">
         <f t="shared" si="45"/>
-        <v>1123</v>
-      </c>
-      <c r="N68" s="7">
+        <v>1134</v>
+      </c>
+      <c r="N68" s="6">
         <f t="shared" si="46"/>
         <v>10</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="6">
         <f t="shared" si="47"/>
-        <v>1088</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5648,41 +5826,41 @@
       <c r="F69" s="3">
         <v>2</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <f t="shared" si="39"/>
-        <v>392</v>
-      </c>
-      <c r="H69" s="7">
+        <v>394</v>
+      </c>
+      <c r="H69" s="6">
         <f t="shared" si="40"/>
-        <v>567</v>
-      </c>
-      <c r="I69" s="7">
+        <v>572</v>
+      </c>
+      <c r="I69" s="6">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="J69" s="7">
+        <v>14</v>
+      </c>
+      <c r="J69" s="6">
         <f t="shared" si="42"/>
         <v>136</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="6">
         <f t="shared" si="43"/>
-        <v>24</v>
-      </c>
-      <c r="L69" s="7">
+        <v>27</v>
+      </c>
+      <c r="L69" s="6">
         <f t="shared" si="44"/>
         <v>9</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M69" s="6">
         <f t="shared" si="45"/>
-        <v>1132</v>
-      </c>
-      <c r="N69" s="7">
+        <v>1143</v>
+      </c>
+      <c r="N69" s="6">
         <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="6">
         <f t="shared" si="47"/>
-        <v>1095</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -5704,41 +5882,41 @@
       <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <f t="shared" si="39"/>
-        <v>392</v>
-      </c>
-      <c r="H70" s="7">
+        <v>394</v>
+      </c>
+      <c r="H70" s="6">
         <f t="shared" si="40"/>
-        <v>570</v>
-      </c>
-      <c r="I70" s="7">
+        <v>575</v>
+      </c>
+      <c r="I70" s="6">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="J70" s="7">
+        <v>14</v>
+      </c>
+      <c r="J70" s="6">
         <f t="shared" si="42"/>
         <v>138</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="6">
         <f t="shared" si="43"/>
-        <v>25</v>
-      </c>
-      <c r="L70" s="7">
+        <v>28</v>
+      </c>
+      <c r="L70" s="6">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="6">
         <f t="shared" si="45"/>
-        <v>1138</v>
-      </c>
-      <c r="N70" s="7">
+        <v>1149</v>
+      </c>
+      <c r="N70" s="6">
         <f t="shared" si="46"/>
         <v>5</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="6">
         <f t="shared" si="47"/>
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -5752,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
@@ -5760,41 +5938,41 @@
       <c r="F71" s="3">
         <v>0</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <f t="shared" si="39"/>
-        <v>394</v>
-      </c>
-      <c r="H71" s="7">
+        <v>396</v>
+      </c>
+      <c r="H71" s="6">
         <f t="shared" si="40"/>
-        <v>573</v>
-      </c>
-      <c r="I71" s="7">
+        <v>578</v>
+      </c>
+      <c r="I71" s="6">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="J71" s="7">
+        <v>15</v>
+      </c>
+      <c r="J71" s="6">
         <f t="shared" si="42"/>
         <v>140</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="6">
         <f t="shared" si="43"/>
-        <v>25</v>
-      </c>
-      <c r="L71" s="7">
+        <v>28</v>
+      </c>
+      <c r="L71" s="6">
         <f t="shared" si="44"/>
-        <v>7</v>
-      </c>
-      <c r="M71" s="7">
+        <v>8</v>
+      </c>
+      <c r="M71" s="6">
         <f t="shared" si="45"/>
-        <v>1145</v>
-      </c>
-      <c r="N71" s="7">
+        <v>1157</v>
+      </c>
+      <c r="N71" s="6">
         <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="6">
         <f t="shared" si="47"/>
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -5816,41 +5994,41 @@
       <c r="F72" s="3">
         <v>0</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="6">
         <f t="shared" si="39"/>
-        <v>395</v>
-      </c>
-      <c r="H72" s="7">
+        <v>397</v>
+      </c>
+      <c r="H72" s="6">
         <f t="shared" si="40"/>
-        <v>573</v>
-      </c>
-      <c r="I72" s="7">
+        <v>578</v>
+      </c>
+      <c r="I72" s="6">
         <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="J72" s="7">
+        <v>15</v>
+      </c>
+      <c r="J72" s="6">
         <f t="shared" si="42"/>
         <v>141</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="6">
         <f t="shared" si="43"/>
-        <v>25</v>
-      </c>
-      <c r="L72" s="7">
+        <v>28</v>
+      </c>
+      <c r="L72" s="6">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M72" s="6">
         <f t="shared" si="45"/>
-        <v>1147</v>
-      </c>
-      <c r="N72" s="7">
+        <v>1159</v>
+      </c>
+      <c r="N72" s="6">
         <f t="shared" si="46"/>
         <v>2</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="6">
         <f t="shared" si="47"/>
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -5867,46 +6045,46 @@
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="6">
         <f t="shared" ref="G73:G75" si="48">B73+G72</f>
-        <v>396</v>
-      </c>
-      <c r="H73" s="7">
+        <v>398</v>
+      </c>
+      <c r="H73" s="6">
         <f t="shared" ref="H73:H75" si="49">C73+H72</f>
-        <v>575</v>
-      </c>
-      <c r="I73" s="7">
+        <v>580</v>
+      </c>
+      <c r="I73" s="6">
         <f t="shared" ref="I73:I75" si="50">D73+I72</f>
-        <v>13</v>
-      </c>
-      <c r="J73" s="7">
+        <v>15</v>
+      </c>
+      <c r="J73" s="6">
         <f t="shared" ref="J73:J75" si="51">E73+J72</f>
-        <v>141</v>
-      </c>
-      <c r="K73" s="7">
+        <v>142</v>
+      </c>
+      <c r="K73" s="6">
         <f t="shared" ref="K73:K75" si="52">F73+K72</f>
-        <v>25</v>
-      </c>
-      <c r="L73" s="7">
+        <v>28</v>
+      </c>
+      <c r="L73" s="6">
         <f t="shared" ref="L73:L75" si="53">SUM(B73:F73)</f>
-        <v>3</v>
-      </c>
-      <c r="M73" s="7">
+        <v>4</v>
+      </c>
+      <c r="M73" s="6">
         <f t="shared" ref="M73:M75" si="54">SUM(G73:K73)</f>
-        <v>1150</v>
-      </c>
-      <c r="N73" s="7">
+        <v>1163</v>
+      </c>
+      <c r="N73" s="6">
         <f t="shared" ref="N73:N75" si="55">SUM(B73,C73,E73)</f>
-        <v>3</v>
-      </c>
-      <c r="O73" s="7">
+        <v>4</v>
+      </c>
+      <c r="O73" s="6">
         <f t="shared" ref="O73:O75" si="56">SUM(G73,H73,J73)</f>
-        <v>1112</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -5928,41 +6106,41 @@
       <c r="F74" s="3">
         <v>0</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <f t="shared" si="48"/>
-        <v>397</v>
-      </c>
-      <c r="H74" s="7">
+        <v>399</v>
+      </c>
+      <c r="H74" s="6">
         <f t="shared" si="49"/>
-        <v>578</v>
-      </c>
-      <c r="I74" s="7">
+        <v>583</v>
+      </c>
+      <c r="I74" s="6">
         <f t="shared" si="50"/>
-        <v>13</v>
-      </c>
-      <c r="J74" s="7">
+        <v>15</v>
+      </c>
+      <c r="J74" s="6">
         <f t="shared" si="51"/>
-        <v>141</v>
-      </c>
-      <c r="K74" s="7">
+        <v>142</v>
+      </c>
+      <c r="K74" s="6">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="L74" s="7">
+        <v>28</v>
+      </c>
+      <c r="L74" s="6">
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="6">
         <f t="shared" si="54"/>
-        <v>1154</v>
-      </c>
-      <c r="N74" s="7">
+        <v>1167</v>
+      </c>
+      <c r="N74" s="6">
         <f t="shared" si="55"/>
         <v>4</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="6">
         <f t="shared" si="56"/>
-        <v>1116</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -5984,324 +6162,1647 @@
       <c r="F75" s="3">
         <v>0</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="6">
         <f t="shared" si="48"/>
-        <v>398</v>
-      </c>
-      <c r="H75" s="7">
+        <v>400</v>
+      </c>
+      <c r="H75" s="6">
         <f t="shared" si="49"/>
-        <v>578</v>
-      </c>
-      <c r="I75" s="7">
+        <v>583</v>
+      </c>
+      <c r="I75" s="6">
         <f t="shared" si="50"/>
-        <v>13</v>
-      </c>
-      <c r="J75" s="7">
+        <v>15</v>
+      </c>
+      <c r="J75" s="6">
         <f t="shared" si="51"/>
-        <v>141</v>
-      </c>
-      <c r="K75" s="7">
+        <v>142</v>
+      </c>
+      <c r="K75" s="6">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="L75" s="7">
+        <v>28</v>
+      </c>
+      <c r="L75" s="6">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M75" s="6">
         <f t="shared" si="54"/>
-        <v>1155</v>
-      </c>
-      <c r="N75" s="7">
+        <v>1168</v>
+      </c>
+      <c r="N75" s="6">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O75" s="6">
         <f t="shared" si="56"/>
-        <v>1117</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>43965</v>
       </c>
-      <c r="B76" s="4">
-        <v>0</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
         <v>2</v>
       </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" ref="G76:G78" si="57">B76+G75</f>
-        <v>398</v>
-      </c>
-      <c r="H76" s="7">
+        <v>400</v>
+      </c>
+      <c r="H76" s="6">
         <f t="shared" ref="H76:H78" si="58">C76+H75</f>
-        <v>580</v>
-      </c>
-      <c r="I76" s="7">
+        <v>585</v>
+      </c>
+      <c r="I76" s="6">
         <f t="shared" ref="I76:I78" si="59">D76+I75</f>
-        <v>14</v>
-      </c>
-      <c r="J76" s="7">
+        <v>16</v>
+      </c>
+      <c r="J76" s="6">
         <f t="shared" ref="J76:J78" si="60">E76+J75</f>
-        <v>141</v>
-      </c>
-      <c r="K76" s="7">
+        <v>142</v>
+      </c>
+      <c r="K76" s="6">
         <f t="shared" ref="K76:K78" si="61">F76+K75</f>
-        <v>25</v>
-      </c>
-      <c r="L76" s="7">
+        <v>28</v>
+      </c>
+      <c r="L76" s="6">
         <f t="shared" ref="L76:L78" si="62">SUM(B76:F76)</f>
         <v>3</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M76" s="6">
         <f t="shared" ref="M76:M78" si="63">SUM(G76:K76)</f>
-        <v>1158</v>
-      </c>
-      <c r="N76" s="7">
+        <v>1171</v>
+      </c>
+      <c r="N76" s="6">
         <f t="shared" ref="N76:N78" si="64">SUM(B76,C76,E76)</f>
         <v>2</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O76" s="6">
         <f t="shared" ref="O76:O78" si="65">SUM(G76,H76,J76)</f>
-        <v>1119</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>43966</v>
       </c>
-      <c r="B77" s="4">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4">
-        <v>0</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="57"/>
-        <v>399</v>
-      </c>
-      <c r="H77" s="7">
+        <v>401</v>
+      </c>
+      <c r="H77" s="6">
         <f t="shared" si="58"/>
-        <v>580</v>
-      </c>
-      <c r="I77" s="7">
+        <v>587</v>
+      </c>
+      <c r="I77" s="6">
         <f t="shared" si="59"/>
-        <v>15</v>
-      </c>
-      <c r="J77" s="7">
+        <v>17</v>
+      </c>
+      <c r="J77" s="6">
         <f t="shared" si="60"/>
-        <v>141</v>
-      </c>
-      <c r="K77" s="7">
+        <v>142</v>
+      </c>
+      <c r="K77" s="6">
         <f t="shared" si="61"/>
-        <v>25</v>
-      </c>
-      <c r="L77" s="7">
+        <v>29</v>
+      </c>
+      <c r="L77" s="6">
         <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="M77" s="7">
+        <v>5</v>
+      </c>
+      <c r="M77" s="6">
         <f t="shared" si="63"/>
-        <v>1160</v>
-      </c>
-      <c r="N77" s="7">
+        <v>1176</v>
+      </c>
+      <c r="N77" s="6">
         <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="O77" s="7">
+        <v>3</v>
+      </c>
+      <c r="O77" s="6">
         <f t="shared" si="65"/>
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>43967</v>
       </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="4">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
+      <c r="B78" s="3">
+        <v>3</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="57"/>
-        <v>400</v>
-      </c>
-      <c r="H78" s="7">
+        <v>404</v>
+      </c>
+      <c r="H78" s="6">
         <f t="shared" si="58"/>
-        <v>582</v>
-      </c>
-      <c r="I78" s="7">
+        <v>591</v>
+      </c>
+      <c r="I78" s="6">
         <f t="shared" si="59"/>
-        <v>15</v>
-      </c>
-      <c r="J78" s="7">
+        <v>17</v>
+      </c>
+      <c r="J78" s="6">
         <f t="shared" si="60"/>
-        <v>141</v>
-      </c>
-      <c r="K78" s="7">
+        <v>142</v>
+      </c>
+      <c r="K78" s="6">
         <f t="shared" si="61"/>
-        <v>25</v>
-      </c>
-      <c r="L78" s="7">
+        <v>29</v>
+      </c>
+      <c r="L78" s="6">
         <f t="shared" si="62"/>
-        <v>3</v>
-      </c>
-      <c r="M78" s="7">
+        <v>7</v>
+      </c>
+      <c r="M78" s="6">
         <f t="shared" si="63"/>
-        <v>1163</v>
-      </c>
-      <c r="N78" s="7">
+        <v>1183</v>
+      </c>
+      <c r="N78" s="6">
         <f t="shared" si="64"/>
-        <v>3</v>
-      </c>
-      <c r="O78" s="7">
+        <v>7</v>
+      </c>
+      <c r="O78" s="6">
         <f t="shared" si="65"/>
-        <v>1123</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>43968</v>
       </c>
-      <c r="B79" s="4">
-        <v>0</v>
-      </c>
-      <c r="C79" s="4">
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
         <v>4</v>
       </c>
-      <c r="D79" s="4">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" ref="G79:G80" si="66">B79+G78</f>
-        <v>400</v>
-      </c>
-      <c r="H79" s="7">
+        <v>404</v>
+      </c>
+      <c r="H79" s="6">
         <f t="shared" ref="H79:H80" si="67">C79+H78</f>
-        <v>586</v>
-      </c>
-      <c r="I79" s="7">
+        <v>595</v>
+      </c>
+      <c r="I79" s="6">
         <f t="shared" ref="I79:I80" si="68">D79+I78</f>
-        <v>15</v>
-      </c>
-      <c r="J79" s="7">
+        <v>17</v>
+      </c>
+      <c r="J79" s="6">
         <f t="shared" ref="J79:J80" si="69">E79+J78</f>
-        <v>141</v>
-      </c>
-      <c r="K79" s="7">
+        <v>142</v>
+      </c>
+      <c r="K79" s="6">
         <f t="shared" ref="K79:K80" si="70">F79+K78</f>
-        <v>25</v>
-      </c>
-      <c r="L79" s="7">
+        <v>29</v>
+      </c>
+      <c r="L79" s="6">
         <f t="shared" ref="L79:L80" si="71">SUM(B79:F79)</f>
         <v>4</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M79" s="6">
         <f t="shared" ref="M79:M80" si="72">SUM(G79:K79)</f>
-        <v>1167</v>
-      </c>
-      <c r="N79" s="7">
+        <v>1187</v>
+      </c>
+      <c r="N79" s="6">
         <f t="shared" ref="N79:N80" si="73">SUM(B79,C79,E79)</f>
         <v>4</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O79" s="6">
         <f t="shared" ref="O79:O80" si="74">SUM(G79,H79,J79)</f>
-        <v>1127</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>43969</v>
       </c>
-      <c r="B80" s="4">
-        <v>0</v>
-      </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="66"/>
-        <v>400</v>
-      </c>
-      <c r="H80" s="7">
+        <v>404</v>
+      </c>
+      <c r="H80" s="6">
         <f t="shared" si="67"/>
-        <v>587</v>
-      </c>
-      <c r="I80" s="7">
+        <v>596</v>
+      </c>
+      <c r="I80" s="6">
         <f t="shared" si="68"/>
-        <v>15</v>
-      </c>
-      <c r="J80" s="7">
+        <v>17</v>
+      </c>
+      <c r="J80" s="6">
         <f t="shared" si="69"/>
-        <v>141</v>
-      </c>
-      <c r="K80" s="7">
+        <v>142</v>
+      </c>
+      <c r="K80" s="6">
         <f t="shared" si="70"/>
-        <v>25</v>
-      </c>
-      <c r="L80" s="7">
+        <v>29</v>
+      </c>
+      <c r="L80" s="6">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="6">
         <f t="shared" si="72"/>
+        <v>1188</v>
+      </c>
+      <c r="N80" s="6">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="O80" s="6">
+        <f t="shared" si="74"/>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>43970</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" ref="G81:G86" si="75">B81+G80</f>
+        <v>406</v>
+      </c>
+      <c r="H81" s="6">
+        <f t="shared" ref="H81:H86" si="76">C81+H80</f>
+        <v>596</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" ref="I81:I86" si="77">D81+I80</f>
+        <v>17</v>
+      </c>
+      <c r="J81" s="6">
+        <f t="shared" ref="J81:J86" si="78">E81+J80</f>
+        <v>142</v>
+      </c>
+      <c r="K81" s="6">
+        <f t="shared" ref="K81:K86" si="79">F81+K80</f>
+        <v>29</v>
+      </c>
+      <c r="L81" s="6">
+        <f t="shared" ref="L81:L86" si="80">SUM(B81:F81)</f>
+        <v>2</v>
+      </c>
+      <c r="M81" s="6">
+        <f t="shared" ref="M81:M86" si="81">SUM(G81:K81)</f>
+        <v>1190</v>
+      </c>
+      <c r="N81" s="6">
+        <f t="shared" ref="N81:N86" si="82">SUM(B81,C81,E81)</f>
+        <v>2</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" ref="O81:O86" si="83">SUM(G81,H81,J81)</f>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>43971</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="75"/>
+        <v>409</v>
+      </c>
+      <c r="H82" s="6">
+        <f t="shared" si="76"/>
+        <v>598</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" si="77"/>
+        <v>17</v>
+      </c>
+      <c r="J82" s="6">
+        <f t="shared" si="78"/>
+        <v>144</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" si="79"/>
+        <v>29</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" si="80"/>
+        <v>7</v>
+      </c>
+      <c r="M82" s="6">
+        <f t="shared" si="81"/>
+        <v>1197</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="83"/>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>43972</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="75"/>
+        <v>410</v>
+      </c>
+      <c r="H83" s="6">
+        <f t="shared" si="76"/>
+        <v>598</v>
+      </c>
+      <c r="I83" s="6">
+        <f t="shared" si="77"/>
+        <v>17</v>
+      </c>
+      <c r="J83" s="6">
+        <f t="shared" si="78"/>
+        <v>147</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" si="79"/>
+        <v>29</v>
+      </c>
+      <c r="L83" s="6">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="M83" s="6">
+        <f t="shared" si="81"/>
+        <v>1201</v>
+      </c>
+      <c r="N83" s="6">
+        <f t="shared" si="82"/>
+        <v>4</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="83"/>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>43973</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="75"/>
+        <v>411</v>
+      </c>
+      <c r="H84" s="6">
+        <f t="shared" si="76"/>
+        <v>600</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" si="77"/>
+        <v>17</v>
+      </c>
+      <c r="J84" s="6">
+        <f t="shared" si="78"/>
+        <v>147</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" si="79"/>
+        <v>29</v>
+      </c>
+      <c r="L84" s="6">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="M84" s="6">
+        <f t="shared" si="81"/>
+        <v>1204</v>
+      </c>
+      <c r="N84" s="6">
+        <f t="shared" si="82"/>
+        <v>3</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="83"/>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>43974</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="75"/>
+        <v>411</v>
+      </c>
+      <c r="H85" s="6">
+        <f t="shared" si="76"/>
+        <v>601</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="77"/>
+        <v>17</v>
+      </c>
+      <c r="J85" s="6">
+        <f t="shared" si="78"/>
+        <v>147</v>
+      </c>
+      <c r="K85" s="6">
+        <f t="shared" si="79"/>
+        <v>29</v>
+      </c>
+      <c r="L85" s="6">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="M85" s="6">
+        <f t="shared" si="81"/>
+        <v>1205</v>
+      </c>
+      <c r="N85" s="6">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="83"/>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>43975</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="75"/>
+        <v>411</v>
+      </c>
+      <c r="H86" s="6">
+        <f t="shared" si="76"/>
+        <v>601</v>
+      </c>
+      <c r="I86" s="6">
+        <f t="shared" si="77"/>
+        <v>17</v>
+      </c>
+      <c r="J86" s="6">
+        <f t="shared" si="78"/>
+        <v>147</v>
+      </c>
+      <c r="K86" s="6">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="L86" s="6">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="M86" s="6">
+        <f t="shared" si="81"/>
+        <v>1206</v>
+      </c>
+      <c r="N86" s="6">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="83"/>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>43976</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" ref="G87:G101" si="84">B87+G86</f>
+        <v>413</v>
+      </c>
+      <c r="H87" s="6">
+        <f t="shared" ref="H87:H101" si="85">C87+H86</f>
+        <v>601</v>
+      </c>
+      <c r="I87" s="6">
+        <f t="shared" ref="I87:I101" si="86">D87+I86</f>
+        <v>17</v>
+      </c>
+      <c r="J87" s="6">
+        <f t="shared" ref="J87:J101" si="87">E87+J86</f>
+        <v>147</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" ref="K87:K101" si="88">F87+K86</f>
+        <v>30</v>
+      </c>
+      <c r="L87" s="6">
+        <f t="shared" ref="L87:L101" si="89">SUM(B87:F87)</f>
+        <v>2</v>
+      </c>
+      <c r="M87" s="6">
+        <f t="shared" ref="M87:M101" si="90">SUM(G87:K87)</f>
+        <v>1208</v>
+      </c>
+      <c r="N87" s="6">
+        <f t="shared" ref="N87:N101" si="91">SUM(B87,C87,E87)</f>
+        <v>2</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" ref="O87:O101" si="92">SUM(G87,H87,J87)</f>
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>43977</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="84"/>
+        <v>413</v>
+      </c>
+      <c r="H88" s="6">
+        <f t="shared" si="85"/>
+        <v>603</v>
+      </c>
+      <c r="I88" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J88" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K88" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L88" s="6">
+        <f t="shared" si="89"/>
+        <v>3</v>
+      </c>
+      <c r="M88" s="6">
+        <f t="shared" si="90"/>
+        <v>1211</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="92"/>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>43978</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H89" s="6">
+        <f t="shared" si="85"/>
+        <v>604</v>
+      </c>
+      <c r="I89" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K89" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L89" s="6">
+        <f t="shared" si="89"/>
+        <v>3</v>
+      </c>
+      <c r="M89" s="6">
+        <f t="shared" si="90"/>
+        <v>1214</v>
+      </c>
+      <c r="N89" s="6">
+        <f t="shared" si="91"/>
+        <v>3</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="92"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>43979</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H90" s="6">
+        <f t="shared" si="85"/>
+        <v>604</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J90" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K90" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L90" s="6">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="6">
+        <f t="shared" si="90"/>
+        <v>1214</v>
+      </c>
+      <c r="N90" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
+        <f t="shared" si="92"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>43980</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H91" s="6">
+        <f t="shared" si="85"/>
+        <v>604</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J91" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K91" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L91" s="6">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="6">
+        <f t="shared" si="90"/>
+        <v>1214</v>
+      </c>
+      <c r="N91" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="6">
+        <f t="shared" si="92"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>43981</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H92" s="6">
+        <f t="shared" si="85"/>
+        <v>606</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J92" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K92" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L92" s="6">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="M92" s="6">
+        <f t="shared" si="90"/>
+        <v>1216</v>
+      </c>
+      <c r="N92" s="6">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="O92" s="6">
+        <f t="shared" si="92"/>
         <v>1168</v>
       </c>
-      <c r="N80" s="7">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="O80" s="7">
-        <f t="shared" si="74"/>
-        <v>1128</v>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>43982</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H93" s="6">
+        <f t="shared" si="85"/>
+        <v>606</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L93" s="6">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" si="90"/>
+        <v>1216</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
+        <f t="shared" si="92"/>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>43983</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H94" s="6">
+        <f t="shared" si="85"/>
+        <v>609</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J94" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K94" s="6">
+        <f t="shared" si="88"/>
+        <v>31</v>
+      </c>
+      <c r="L94" s="6">
+        <f t="shared" si="89"/>
+        <v>3</v>
+      </c>
+      <c r="M94" s="6">
+        <f t="shared" si="90"/>
+        <v>1219</v>
+      </c>
+      <c r="N94" s="6">
+        <f t="shared" si="91"/>
+        <v>3</v>
+      </c>
+      <c r="O94" s="6">
+        <f t="shared" si="92"/>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>43984</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H95" s="6">
+        <f t="shared" si="85"/>
+        <v>609</v>
+      </c>
+      <c r="I95" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J95" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K95" s="6">
+        <f t="shared" si="88"/>
+        <v>32</v>
+      </c>
+      <c r="L95" s="6">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="M95" s="6">
+        <f t="shared" si="90"/>
+        <v>1220</v>
+      </c>
+      <c r="N95" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="6">
+        <f t="shared" si="92"/>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>43985</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="84"/>
+        <v>415</v>
+      </c>
+      <c r="H96" s="6">
+        <f t="shared" si="85"/>
+        <v>609</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J96" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" si="88"/>
+        <v>33</v>
+      </c>
+      <c r="L96" s="6">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="M96" s="6">
+        <f t="shared" si="90"/>
+        <v>1221</v>
+      </c>
+      <c r="N96" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
+        <f t="shared" si="92"/>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>43986</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="84"/>
+        <v>417</v>
+      </c>
+      <c r="H97" s="6">
+        <f t="shared" si="85"/>
+        <v>611</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J97" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K97" s="6">
+        <f t="shared" si="88"/>
+        <v>33</v>
+      </c>
+      <c r="L97" s="6">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="M97" s="6">
+        <f t="shared" si="90"/>
+        <v>1225</v>
+      </c>
+      <c r="N97" s="6">
+        <f t="shared" si="91"/>
+        <v>4</v>
+      </c>
+      <c r="O97" s="6">
+        <f t="shared" si="92"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>43987</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="84"/>
+        <v>418</v>
+      </c>
+      <c r="H98" s="6">
+        <f t="shared" si="85"/>
+        <v>611</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J98" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" si="88"/>
+        <v>34</v>
+      </c>
+      <c r="L98" s="6">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="M98" s="6">
+        <f t="shared" si="90"/>
+        <v>1227</v>
+      </c>
+      <c r="N98" s="6">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="O98" s="6">
+        <f t="shared" si="92"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>43988</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="84"/>
+        <v>418</v>
+      </c>
+      <c r="H99" s="6">
+        <f t="shared" si="85"/>
+        <v>611</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J99" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K99" s="6">
+        <f t="shared" si="88"/>
+        <v>34</v>
+      </c>
+      <c r="L99" s="6">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="6">
+        <f t="shared" si="90"/>
+        <v>1227</v>
+      </c>
+      <c r="N99" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <f t="shared" si="92"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>43989</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="84"/>
+        <v>418</v>
+      </c>
+      <c r="H100" s="6">
+        <f t="shared" si="85"/>
+        <v>611</v>
+      </c>
+      <c r="I100" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J100" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K100" s="6">
+        <f t="shared" si="88"/>
+        <v>34</v>
+      </c>
+      <c r="L100" s="6">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="6">
+        <f t="shared" si="90"/>
+        <v>1227</v>
+      </c>
+      <c r="N100" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <f t="shared" si="92"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>43990</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="84"/>
+        <v>418</v>
+      </c>
+      <c r="H101" s="6">
+        <f t="shared" si="85"/>
+        <v>611</v>
+      </c>
+      <c r="I101" s="6">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="J101" s="6">
+        <f t="shared" si="87"/>
+        <v>147</v>
+      </c>
+      <c r="K101" s="6">
+        <f t="shared" si="88"/>
+        <v>34</v>
+      </c>
+      <c r="L101" s="6">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="6">
+        <f t="shared" si="90"/>
+        <v>1227</v>
+      </c>
+      <c r="N101" s="6">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <f t="shared" si="92"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>43991</v>
+      </c>
+      <c r="B102" s="8">
+        <v>0</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="9">
+        <f t="shared" ref="G102:G103" si="93">B102+G101</f>
+        <v>418</v>
+      </c>
+      <c r="H102" s="9">
+        <f t="shared" ref="H102:H103" si="94">C102+H101</f>
+        <v>611</v>
+      </c>
+      <c r="I102" s="9">
+        <f t="shared" ref="I102:I103" si="95">D102+I101</f>
+        <v>17</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" ref="J102:J103" si="96">E102+J101</f>
+        <v>147</v>
+      </c>
+      <c r="K102" s="9">
+        <f t="shared" ref="K102:K103" si="97">F102+K101</f>
+        <v>34</v>
+      </c>
+      <c r="L102" s="9">
+        <f t="shared" ref="L102:L103" si="98">SUM(B102:F102)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="9">
+        <f t="shared" ref="M102:M103" si="99">SUM(G102:K102)</f>
+        <v>1227</v>
+      </c>
+      <c r="N102" s="9">
+        <f t="shared" ref="N102:N103" si="100">SUM(B102,C102,E102)</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="9">
+        <f t="shared" ref="O102:O103" si="101">SUM(G102,H102,J102)</f>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>43992</v>
+      </c>
+      <c r="B103" s="8">
+        <v>0</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9">
+        <f t="shared" si="93"/>
+        <v>418</v>
+      </c>
+      <c r="H103" s="9">
+        <f t="shared" si="94"/>
+        <v>611</v>
+      </c>
+      <c r="I103" s="9">
+        <f t="shared" si="95"/>
+        <v>17</v>
+      </c>
+      <c r="J103" s="9">
+        <f t="shared" si="96"/>
+        <v>147</v>
+      </c>
+      <c r="K103" s="9">
+        <f t="shared" si="97"/>
+        <v>34</v>
+      </c>
+      <c r="L103" s="9">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="9">
+        <f t="shared" si="99"/>
+        <v>1227</v>
+      </c>
+      <c r="N103" s="9">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="9">
+        <f t="shared" si="101"/>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F83 B94:F101">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:F101">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:F93">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:F102">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:F102">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:F103">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:F103">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>TODAY()-B$16&lt;6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
